--- a/data/trans_bre/P23_DUKE_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_DUKE_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-17,14</t>
+          <t>-9,68</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>-3,47</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>-5,06</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-49,24%</t>
+          <t>-9,13</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>-11,28%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,8%</t>
+          <t>-3,77%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-5,53%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-9,65%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-42,06; 1,69</t>
+          <t>-27,98; 9,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,07; 14,75</t>
+          <t>-17,73; 11,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-26,83; 31,72</t>
+          <t>-20,52; 9,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-77,41; 20,16</t>
+          <t>-26,47; 3,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-48,11; 128,56</t>
+          <t>-30,61; 11,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-64,51; 168,39</t>
+          <t>-18,96; 13,09</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-21,42; 10,7</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-27,31; 4,13</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,73</t>
+          <t>11,38</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>2,89</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>30,57%</t>
+          <t>-4,69</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>14,71%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>3,32%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-0,31%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-5,23%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 12,2</t>
+          <t>2,2; 26,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 8,34</t>
+          <t>-4,87; 11,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 7,84</t>
+          <t>-10,12; 10,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,27; 113,51</t>
+          <t>-12,37; 4,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-33,9; 64,88</t>
+          <t>2,23; 41,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-37,59; 64,38</t>
+          <t>-5,25; 14,24</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-11,44; 13,31</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-13,44; 5,01</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>7,99</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,65</t>
+          <t>-1,46</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,64</t>
+          <t>3,52</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>37,87%</t>
+          <t>2,76</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-16,15%</t>
+          <t>9,57%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>67,54%</t>
+          <t>-1,64%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>4,0%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>3,16%</t>
         </is>
       </c>
     </row>
@@ -802,39 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 8,81</t>
+          <t>-0,4; 17,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 4,09</t>
+          <t>-8,91; 6,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 13,83</t>
+          <t>-4,44; 11,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-24,12; 165,39</t>
+          <t>-4,9; 10,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-57,48; 60,9</t>
+          <t>-0,41; 22,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,51; 173,96</t>
+          <t>-9,64; 7,66</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-4,77; 14,2</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-5,33; 12,6</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-1,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,48%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,160 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 5,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 5,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 12,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-29,22; 47,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-29,23; 38,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,06; 92,97</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7,6</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,35</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,84</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-2,69</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>9,41%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0,4%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,98%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-2,99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1,84; 16,02</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-4,67; 5,93</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-5,07; 6,98</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-8,67; 2,5</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2,16; 21,81</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-5,19; 6,98</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-5,66; 8,54</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-9,4; 2,94</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P23_DUKE_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_DUKE_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-9,68</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-3,47</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-5,06</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-9,13</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-11,28%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-3,77%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-5,53%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-9,65%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-12.27901368781907</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-2.248913724403201</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-7.399861992472035</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-8.654203112704161</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.1422840652354824</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.02463163858578055</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.08049970070548781</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.09163211617592916</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-27,98; 9,01</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-17,73; 11,05</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-20,52; 9,08</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-26,47; 3,87</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-30,61; 11,3</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-18,96; 13,09</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-21,42; 10,7</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-27,31; 4,13</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-31.74837485520396</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-15.81684346957553</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-25.78560486256802</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-25.81525601833177</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.340414084497201</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.1655142615623335</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.2727524792671577</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.2691964539564859</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>6.350319225124368</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>12.56180328196982</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>6.330677222033635</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>4.838950797587824</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.07924186195580596</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.1549702154043066</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.07347191684363094</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.05203768867309837</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>11,38</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,89</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,26</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-4,69</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>14,71%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>3,32%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-0,31%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-5,23%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>2,2; 26,63</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-4,87; 11,5</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-10,12; 10,17</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-12,37; 4,23</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>2,23; 41,55</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-5,25; 14,24</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-11,44; 13,31</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-13,44; 5,01</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>11.35396069182472</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>4.646037048579332</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.2222852096874006</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-4.030785680778326</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.1458927691883504</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.05399886192557473</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.002685384563459978</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.04534410426836882</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>7,99</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-1,46</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,52</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>2,76</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>9,57%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-1,64%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>4,0%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>3,16%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>2.165775200170737</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-3.061486533416622</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-9.362585504388559</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-11.72572102662513</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0.02702756329481759</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.03458069007740282</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.1079072844009475</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.1265221552045215</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-0,4; 17,19</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-8,91; 6,61</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-4,44; 11,8</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-4,9; 10,35</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-0,41; 22,52</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-9,64; 7,66</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-4,77; 14,2</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-5,33; 12,6</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>25.63626626242216</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>13.63984637337913</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>11.18160338755122</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>5.942832166898491</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.3970054151331939</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.1730282639806227</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.1437099011837114</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.07079204831160676</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +827,211 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>10.61111271467498</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-1.687341294846256</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>3.157639338530849</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>2.757123135571327</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.1312870901770784</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.01900175884689263</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.03591097833550753</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.03151916802001508</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>1.177693112245765</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-9.553582584930552</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-4.95993616160276</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-4.362443741159533</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>0.0132144361359659</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.1019067753816812</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.05253981017858781</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.04838810673104302</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>24.75384529798416</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>6.280958049843373</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>11.34719940158095</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>10.61736256785622</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.3685683974013119</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.07463489076988239</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.1396067637619954</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.1310546177995746</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>7,6</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,35</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,84</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-2,69</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>9,41%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0,4%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,98%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-2,99%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>1,84; 16,02</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-4,67; 5,93</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-5,07; 6,98</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-8,67; 2,5</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>2,16; 21,81</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-5,19; 6,98</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-5,66; 8,54</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-9,4; 2,94</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>8.261513974604306</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.317164294930007</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.5483488041036488</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-2.296994039279088</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.1032015963419239</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.01502122755529438</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.006382799912716247</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.02570983362510332</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>2.027872211266166</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-3.655212420156507</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-5.607374566212412</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-8.2225692653727</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.02373458518592782</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.04041832760701104</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.06296648340118949</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.08988436798665345</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>17.0814990941986</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>7.356684003608787</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>6.679936040755829</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>3.163620950308339</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.2375718629066447</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.0883988388606364</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.08224036415883948</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.03661688206340599</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
